--- a/examples/Example excel.xlsx
+++ b/examples/Example excel.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITREPO\Linked-Data-Theatre\examples\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="7485" activeTab="2"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>uri schema</t>
   </si>
@@ -24,15 +29,9 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>begrip</t>
-  </si>
-  <si>
     <t>URI schema</t>
   </si>
   <si>
-    <t>definitie</t>
-  </si>
-  <si>
     <t>skos</t>
   </si>
   <si>
@@ -84,9 +83,6 @@
     <t>broader-concept</t>
   </si>
   <si>
-    <t>http://localhost:8080/EB/id/begrip/{broader-concept}</t>
-  </si>
-  <si>
     <t>http://purl.org/dc/terms/{property}</t>
   </si>
   <si>
@@ -99,9 +95,6 @@
     <t>http://www.w3.org/2004/02/skos/core#{class}</t>
   </si>
   <si>
-    <t>http://localhost:8080/EB/id/begrip/{concept}</t>
-  </si>
-  <si>
     <t>vocabular</t>
   </si>
   <si>
@@ -139,6 +132,39 @@
   </si>
   <si>
     <t>A vehicle with two wheels, propelled by human power</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>http://localhost:8080/id/begrip/{concept}</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/id/begrip/{broader-concept}</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>truck</t>
+  </si>
+  <si>
+    <t>Cell C3 contains spaces, but will not generate a broader-concept</t>
+  </si>
+  <si>
+    <t>Cell B4 contains nothing and will not generate a definition</t>
+  </si>
+  <si>
+    <t>Cell B5 contains spaces and will generate a definition (containing spaces)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>This column will not be processed, because it has no header which is defined in the sheet 'Properties'</t>
+  </si>
+  <si>
+    <t>comments</t>
   </si>
 </sst>
 </file>
@@ -195,6 +221,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -242,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,7 +306,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -489,7 +518,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,97 +532,97 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +636,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,102 +651,102 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -727,10 +756,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,34 +768,71 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
